--- a/biology/Biologie cellulaire et moléculaire/CCL17/CCL17.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CCL17/CCL17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CCL17 (pour « CC chemokine ligand 17 ») est une chimiokine. Son gène, CCL17 est situé sur le chromosome 16 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se lie au CCR4. Il favorise la proliférations des lymphocyte T régulateurs[5] et auxiliaire[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se lie au CCR4. Il favorise la proliférations des lymphocyte T régulateurs et auxiliaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression est augmentée dans l'asthme[7], dans la dermatose allergique de contact[8],dans la polyarthrite rhumatoïde[9] et dans l'athérome[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression est augmentée dans l'asthme, dans la dermatose allergique de contact,dans la polyarthrite rhumatoïde et dans l'athérome.
 </t>
         </is>
       </c>
